--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108100.4798311097</v>
+        <v>106560.992502234</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23511606.65325126</v>
+        <v>23347074.56340344</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8806943.246650696</v>
+        <v>8645685.345390847</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4970236.835484987</v>
+        <v>5024348.733390165</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>178.2051142448231</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>313.2563140225133</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>106.0626366504663</v>
+        <v>12.21662268285748</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>230.5031321362306</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.7717122625497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,16 +1113,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>223.20444749389</v>
       </c>
       <c r="Y7" t="n">
-        <v>135.0644840499559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>385.3238927773753</v>
+        <v>74.47479140598085</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1291,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>16.87089136023326</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>20.97478045648731</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>383.3590907834183</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>15.43611296341609</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>394.519488585689</v>
+        <v>38.92507044044339</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>260.2915433175625</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>156.2681271316377</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>32.19246757545231</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1856,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.609587791059592</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2002,22 +2004,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>23.7504511463245</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>403.4239299235007</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>238.8149445207416</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>148.8597651552996</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>160.3236401378641</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>120.3904802124678</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2381,10 +2383,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,10 +2538,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>212.945004178556</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>53.00122480006321</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2564,7 +2566,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.30582748093318</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2801,7 +2803,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2849,10 +2851,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>28.60468344882636</v>
       </c>
       <c r="W29" t="n">
-        <v>93.20265817819813</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>22.56919457453911</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>155.9995894427402</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>32.19246757545231</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3266,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>294.3175464825621</v>
       </c>
       <c r="D35" t="n">
-        <v>155.9995894427402</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3326,13 +3328,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3433,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.1441627534537</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>185.1447535886774</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>158.209950553851</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3673,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>160.7884964950064</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>155.9995894427402</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3803,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>403.4239299235007</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3992,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>84.80994624998873</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4040,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>174.8095987446686</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>6.000066560756421</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>73.01514676193472</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>642.5305087682017</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C2" t="n">
-        <v>213.94883450547</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>213.94883450547</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>213.94883450547</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>213.94883450547</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4331,49 +4333,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1477.116202953456</v>
+        <v>1297.111037049594</v>
       </c>
       <c r="X2" t="n">
-        <v>1477.116202953456</v>
+        <v>1297.111037049594</v>
       </c>
       <c r="Y2" t="n">
-        <v>1068.830079253109</v>
+        <v>888.8249133492478</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,37 +4397,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.0776450162207</v>
+        <v>694.0968560634212</v>
       </c>
       <c r="C4" t="n">
-        <v>141.0776450162207</v>
+        <v>521.5351445466462</v>
       </c>
       <c r="D4" t="n">
-        <v>141.0776450162207</v>
+        <v>521.5351445466462</v>
       </c>
       <c r="E4" t="n">
-        <v>141.0776450162207</v>
+        <v>351.7771407973834</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4489,22 +4491,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>930.0072868842942</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4525,13 +4527,13 @@
         <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.0776450162207</v>
+        <v>885.9154747824084</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>890.3927724551322</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C5" t="n">
-        <v>890.3927724551322</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D5" t="n">
-        <v>461.8110981924006</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4571,22 +4573,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R5" t="n">
         <v>1697.183430080417</v>
@@ -4595,22 +4597,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.183430080417</v>
+        <v>881.6678062850293</v>
       </c>
       <c r="X5" t="n">
-        <v>1278.040966659728</v>
+        <v>462.52534286434</v>
       </c>
       <c r="Y5" t="n">
-        <v>890.3927724551322</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
       <c r="C7" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
       <c r="D7" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4723,52 +4725,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.45316161735</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V7" t="n">
-        <v>864.4976534877803</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W7" t="n">
-        <v>592.4712490740719</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="X7" t="n">
-        <v>347.0794944074844</v>
+        <v>516.14417192365</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>851.7413961748201</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="C8" t="n">
-        <v>851.7413961748201</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="D8" t="n">
-        <v>851.7413961748201</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="E8" t="n">
-        <v>423.1597219120885</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G8" t="n">
         <v>33.94366860160834</v>
@@ -4805,16 +4807,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O8" t="n">
         <v>687.9235674375537</v>
@@ -4838,16 +4840,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.183430080417</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X8" t="n">
-        <v>1278.040966659728</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1278.040966659728</v>
+        <v>510.5685620045878</v>
       </c>
     </row>
     <row r="9">
@@ -4939,13 +4941,13 @@
         <v>227.6920270441282</v>
       </c>
       <c r="C10" t="n">
-        <v>55.1303155273531</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D10" t="n">
-        <v>55.1303155273531</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E10" t="n">
-        <v>55.1303155273531</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F10" t="n">
         <v>33.94366860160834</v>
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1278.040966659728</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.040966659728</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D11" t="n">
-        <v>849.4592923969963</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E11" t="n">
-        <v>462.2278875652606</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K11" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K11" t="n">
-        <v>687.9235674375537</v>
-      </c>
       <c r="L11" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M11" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N11" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O11" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P11" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q11" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R11" t="n">
         <v>1697.183430080417</v>
@@ -5075,16 +5077,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="X11" t="n">
-        <v>1278.040966659728</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="Y11" t="n">
-        <v>1278.040966659728</v>
+        <v>1318.974446717864</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J12" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K12" t="n">
-        <v>804.6185656731816</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="L12" t="n">
-        <v>804.6185656731816</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6185656731816</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N12" t="n">
-        <v>804.6185656731816</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O12" t="n">
-        <v>804.6185656731816</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P12" t="n">
-        <v>1159.957753041174</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q12" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R12" t="n">
         <v>1697.183430080417</v>
@@ -5203,10 +5205,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L13" t="n">
-        <v>452.1535503695694</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M13" t="n">
-        <v>872.2064493144727</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N13" t="n">
         <v>1277.514180854636</v>
@@ -5312,13 +5314,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X14" t="n">
-        <v>1298.678896155479</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="Y14" t="n">
         <v>890.3927724551322</v>
@@ -5352,31 +5354,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J15" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K15" t="n">
-        <v>739.9048540962709</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L15" t="n">
-        <v>739.9048540962709</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M15" t="n">
-        <v>739.9048540962709</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N15" t="n">
-        <v>739.9048540962709</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O15" t="n">
-        <v>739.9048540962709</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P15" t="n">
-        <v>1159.957753041174</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q15" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R15" t="n">
         <v>1697.183430080417</v>
@@ -5443,7 +5445,7 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M16" t="n">
-        <v>872.2064493144727</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N16" t="n">
         <v>1277.514180854636</v>
@@ -5464,22 +5466,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U16" t="n">
-        <v>1434.262679254597</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V16" t="n">
-        <v>1147.307171125027</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W16" t="n">
-        <v>875.2807667113186</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X16" t="n">
-        <v>629.8890120447311</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y16" t="n">
-        <v>402.4693413588393</v>
+        <v>210.6507226398521</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.59981788550692</v>
+        <v>85.91886054423696</v>
       </c>
       <c r="C17" t="n">
-        <v>38.59981788550692</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="D17" t="n">
-        <v>38.59981788550692</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="E17" t="n">
-        <v>38.59981788550692</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F17" t="n">
-        <v>38.59981788550692</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0247332457074</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L17" t="n">
-        <v>437.0247332457074</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="M17" t="n">
-        <v>437.0247332457074</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N17" t="n">
-        <v>437.0247332457074</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="O17" t="n">
-        <v>857.0776321906106</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P17" t="n">
-        <v>1277.130531135514</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W17" t="n">
-        <v>1292.327975491451</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X17" t="n">
-        <v>873.1855120707613</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y17" t="n">
-        <v>464.8993883704147</v>
+        <v>512.2184310291448</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D18" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E18" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F18" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I18" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J18" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K18" t="n">
-        <v>739.9048540962709</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="L18" t="n">
-        <v>739.9048540962709</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="M18" t="n">
-        <v>739.9048540962709</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="N18" t="n">
-        <v>739.9048540962709</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="O18" t="n">
-        <v>739.9048540962709</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="P18" t="n">
-        <v>1159.957753041174</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q18" t="n">
-        <v>1580.010651986078</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R18" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S18" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T18" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U18" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V18" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W18" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X18" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y18" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>227.6920270441282</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C19" t="n">
-        <v>203.7016723508711</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D19" t="n">
-        <v>203.7016723508711</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J19" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L19" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M19" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q19" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U19" t="n">
-        <v>1451.303983658873</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.348475529303</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W19" t="n">
-        <v>892.3220711155946</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X19" t="n">
-        <v>646.930316449007</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y19" t="n">
-        <v>419.5106457631153</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1182.071675278725</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C20" t="n">
         <v>743.9292024621484</v>
@@ -5744,58 +5746,58 @@
         <v>342.5313710854123</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J20" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M20" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N20" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O20" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>2035.921380153963</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q20" t="n">
-        <v>2582.420166112558</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U20" t="n">
-        <v>2190.771296621483</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V20" t="n">
-        <v>1828.15434655531</v>
+        <v>1964.569699866109</v>
       </c>
       <c r="W20" t="n">
-        <v>1423.298891966343</v>
+        <v>1559.714245277142</v>
       </c>
       <c r="X20" t="n">
-        <v>1423.298891966343</v>
+        <v>1559.714245277142</v>
       </c>
       <c r="Y20" t="n">
-        <v>1182.071675278725</v>
+        <v>1151.428121576796</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5825,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I21" t="n">
         <v>79.46488968908616</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1043.799427915185</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C22" t="n">
-        <v>871.2377163984103</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D22" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E22" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F22" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G22" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5932,28 +5934,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S22" t="n">
-        <v>2519.697427284661</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T22" t="n">
-        <v>2273.817980863116</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U22" t="n">
-        <v>1995.384980116221</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V22" t="n">
-        <v>1708.429471986652</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W22" t="n">
-        <v>1708.429471986652</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X22" t="n">
-        <v>1463.037717320064</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1235.618046634173</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2346.043694250762</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="C23" t="n">
-        <v>1907.901221434185</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="D23" t="n">
-        <v>1471.99143660863</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="E23" t="n">
-        <v>1038.216691766925</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F23" t="n">
-        <v>610.3492621761325</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G23" t="n">
-        <v>208.9514307993963</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H23" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I23" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J23" t="n">
-        <v>522.5995725831548</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>1356.949864541333</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L23" t="n">
-        <v>2012.255929149549</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M23" t="n">
-        <v>2012.255929149549</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N23" t="n">
-        <v>2012.255929149549</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O23" t="n">
-        <v>2992.435595719855</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>3820.745470553251</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q23" t="n">
-        <v>4367.244256511845</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R23" t="n">
-        <v>4367.244256511845</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>4367.244256511845</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>4367.244256511845</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U23" t="n">
-        <v>4367.244256511845</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V23" t="n">
-        <v>4004.627306445672</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W23" t="n">
-        <v>3599.771851856705</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X23" t="n">
-        <v>3180.629388436016</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2772.343264735669</v>
+        <v>1339.647018150181</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>593.5166301215297</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C24" t="n">
-        <v>487.060168958172</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D24" t="n">
-        <v>391.9698801047252</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E24" t="n">
-        <v>297.8494654316789</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F24" t="n">
-        <v>214.4656270478405</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G24" t="n">
-        <v>129.0805373140244</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H24" t="n">
-        <v>87.3448851302369</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I24" t="n">
-        <v>87.3448851302369</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J24" t="n">
-        <v>87.3448851302369</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K24" t="n">
-        <v>87.3448851302369</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L24" t="n">
-        <v>930.8614801298478</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M24" t="n">
-        <v>930.8614801298478</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N24" t="n">
-        <v>930.8614801298478</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O24" t="n">
-        <v>930.8614801298478</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P24" t="n">
-        <v>1750.584646609046</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q24" t="n">
-        <v>1750.584646609046</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R24" t="n">
-        <v>1750.584646609046</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S24" t="n">
-        <v>1687.129209057429</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T24" t="n">
-        <v>1556.950565388031</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U24" t="n">
-        <v>1380.614018387999</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V24" t="n">
-        <v>1181.496500449998</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W24" t="n">
-        <v>996.1737461831922</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X24" t="n">
-        <v>841.3063104220721</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y24" t="n">
-        <v>714.8205312012929</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1077.743096516794</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C25" t="n">
-        <v>905.1813850000186</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D25" t="n">
-        <v>739.3033922015413</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E25" t="n">
-        <v>569.5453884522785</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F25" t="n">
-        <v>392.8383344140347</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
-        <v>227.2470594398624</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H25" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I25" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J25" t="n">
-        <v>173.9245702949268</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K25" t="n">
-        <v>448.6830248660624</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>866.8929066340235</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M25" t="n">
-        <v>1326.376773814936</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1768.635576972581</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
-        <v>2188.304826198362</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P25" t="n">
-        <v>2535.811720168704</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q25" t="n">
-        <v>2704.004495033037</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2682.586673738409</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S25" t="n">
-        <v>2523.345305036405</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T25" t="n">
-        <v>2277.46585861486</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U25" t="n">
-        <v>1999.032857867966</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V25" t="n">
-        <v>1712.077349738396</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W25" t="n">
-        <v>1712.077349738396</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X25" t="n">
-        <v>1496.981385921673</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y25" t="n">
-        <v>1269.561715235781</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1361.228219012466</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C26" t="n">
-        <v>923.0857461958889</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D26" t="n">
-        <v>487.1759613703334</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E26" t="n">
-        <v>53.40121652862856</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K26" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L26" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M26" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N26" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O26" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2622.277162309273</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2402.209935182312</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U26" t="n">
-        <v>2142.987632499328</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V26" t="n">
-        <v>1780.370682433155</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W26" t="n">
-        <v>1780.370682433155</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X26" t="n">
-        <v>1361.228219012466</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y26" t="n">
-        <v>1361.228219012466</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6306,19 +6308,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P27" t="n">
         <v>1058.729261281022</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C28" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D28" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E28" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F28" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G28" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6388,7 +6390,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L28" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
@@ -6409,25 +6411,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T28" t="n">
-        <v>2634.504334502149</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U28" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V28" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W28" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X28" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y28" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1650.358373569249</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C29" t="n">
-        <v>1212.215900752673</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D29" t="n">
-        <v>776.3061159271172</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E29" t="n">
-        <v>342.5313710854123</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F29" t="n">
         <v>342.5313710854123</v>
@@ -6455,34 +6457,34 @@
         <v>342.5313710854123</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K29" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M29" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N29" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O29" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6491,22 +6493,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2366.341725488303</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U29" t="n">
-        <v>2107.11942280532</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V29" t="n">
-        <v>1744.502472739146</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="W29" t="n">
-        <v>1650.358373569249</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="X29" t="n">
-        <v>1650.358373569249</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="Y29" t="n">
-        <v>1650.358373569249</v>
+        <v>2078.225803160042</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.4772326516127</v>
+        <v>877.921435116708</v>
       </c>
       <c r="C31" t="n">
-        <v>568.9155211348376</v>
+        <v>705.359723599933</v>
       </c>
       <c r="D31" t="n">
-        <v>403.0375283363603</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E31" t="n">
-        <v>233.2795245870976</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F31" t="n">
-        <v>56.57247054885377</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6646,25 +6648,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2489.401636434797</v>
+        <v>2625.845838899892</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.522190013252</v>
+        <v>2379.966392478347</v>
       </c>
       <c r="U31" t="n">
-        <v>1965.089189266357</v>
+        <v>2101.533391731452</v>
       </c>
       <c r="V31" t="n">
-        <v>1678.133681136788</v>
+        <v>1814.577883601883</v>
       </c>
       <c r="W31" t="n">
-        <v>1406.107276723079</v>
+        <v>1542.551479188174</v>
       </c>
       <c r="X31" t="n">
-        <v>1160.715522056492</v>
+        <v>1297.159724521587</v>
       </c>
       <c r="Y31" t="n">
-        <v>933.2958513705998</v>
+        <v>1069.740053835695</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1182.071675278725</v>
+        <v>85.91886054423696</v>
       </c>
       <c r="C32" t="n">
-        <v>743.9292024621484</v>
+        <v>85.91886054423696</v>
       </c>
       <c r="D32" t="n">
-        <v>743.9292024621484</v>
+        <v>85.91886054423696</v>
       </c>
       <c r="E32" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F32" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G32" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K32" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M32" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N32" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O32" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q32" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6728,22 +6730,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2366.341725488303</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U32" t="n">
-        <v>2107.11942280532</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V32" t="n">
-        <v>1744.502472739146</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W32" t="n">
-        <v>1339.64701815018</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X32" t="n">
-        <v>1339.64701815018</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y32" t="n">
-        <v>1339.64701815018</v>
+        <v>512.2184310291448</v>
       </c>
     </row>
     <row r="33">
@@ -6771,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C34" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D34" t="n">
-        <v>794.0196728252577</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E34" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F34" t="n">
-        <v>447.554615037751</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G34" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6862,7 +6864,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
@@ -6886,22 +6888,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T34" t="n">
-        <v>2634.504334502149</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U34" t="n">
-        <v>2356.071333755254</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V34" t="n">
-        <v>2069.115825625685</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W34" t="n">
-        <v>1797.089421211977</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X34" t="n">
-        <v>1551.697666545389</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y34" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1339.64701815018</v>
+        <v>1220.792986561236</v>
       </c>
       <c r="C35" t="n">
-        <v>901.5045453336031</v>
+        <v>923.502535568749</v>
       </c>
       <c r="D35" t="n">
-        <v>743.9292024621484</v>
+        <v>487.5927507431934</v>
       </c>
       <c r="E35" t="n">
-        <v>743.9292024621484</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="F35" t="n">
-        <v>743.9292024621484</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G35" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
@@ -6941,46 +6943,46 @@
         <v>488.6559039815464</v>
       </c>
       <c r="L35" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M35" t="n">
-        <v>1810.336013065103</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N35" t="n">
-        <v>2471.176067606882</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O35" t="n">
-        <v>2471.176067606882</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>2471.176067606882</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T35" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U35" t="n">
-        <v>2107.11942280532</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="V35" t="n">
-        <v>1744.502472739146</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="W35" t="n">
-        <v>1339.64701815018</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="X35" t="n">
-        <v>1339.64701815018</v>
+        <v>1629.079110261583</v>
       </c>
       <c r="Y35" t="n">
-        <v>1339.64701815018</v>
+        <v>1220.792986561236</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I36" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J36" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K36" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.729261281022</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="M36" t="n">
-        <v>1058.729261281022</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N36" t="n">
-        <v>1058.729261281022</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O36" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P36" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q36" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R36" t="n">
         <v>1716.640978007438</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C37" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D37" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E37" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F37" t="n">
         <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7099,7 +7101,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L37" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
@@ -7117,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U37" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V37" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W37" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X37" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y37" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1339.64701815018</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C38" t="n">
-        <v>1339.64701815018</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D38" t="n">
-        <v>903.7372333246242</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E38" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F38" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G38" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
         <v>488.6559039815464</v>
@@ -7178,22 +7180,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="L38" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M38" t="n">
-        <v>1810.336013065103</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N38" t="n">
-        <v>2471.176067606882</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O38" t="n">
-        <v>2471.176067606882</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>2471.176067606882</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7202,22 +7204,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2366.341725488303</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U38" t="n">
-        <v>2107.11942280532</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V38" t="n">
-        <v>1744.502472739146</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W38" t="n">
-        <v>1339.64701815018</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X38" t="n">
-        <v>1339.64701815018</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="Y38" t="n">
-        <v>1339.64701815018</v>
+        <v>931.3608944498341</v>
       </c>
     </row>
     <row r="39">
@@ -7245,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>900.7186013536161</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C40" t="n">
-        <v>728.1568898368411</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D40" t="n">
-        <v>562.2788970383638</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E40" t="n">
-        <v>392.520893289101</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F40" t="n">
-        <v>215.8138392508572</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7336,7 +7338,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
@@ -7354,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T40" t="n">
-        <v>2402.763558715255</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U40" t="n">
-        <v>2124.330557968361</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V40" t="n">
-        <v>1837.375049838791</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W40" t="n">
-        <v>1565.348645425083</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X40" t="n">
-        <v>1319.956890758495</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y40" t="n">
-        <v>1092.537220072603</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1182.071675278725</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C41" t="n">
         <v>743.9292024621484</v>
@@ -7403,31 +7405,31 @@
         <v>342.5313710854123</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K41" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L41" t="n">
-        <v>488.6559039815464</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M41" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N41" t="n">
-        <v>1462.721985931055</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="O41" t="n">
-        <v>1462.721985931055</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P41" t="n">
-        <v>2123.562040472833</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q41" t="n">
         <v>2670.060826431428</v>
@@ -7439,22 +7441,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U41" t="n">
-        <v>2107.11942280532</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V41" t="n">
-        <v>1744.502472739146</v>
+        <v>1964.569699866109</v>
       </c>
       <c r="W41" t="n">
-        <v>1339.64701815018</v>
+        <v>1559.714245277142</v>
       </c>
       <c r="X41" t="n">
-        <v>1339.64701815018</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y41" t="n">
-        <v>1339.64701815018</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C42" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D42" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E42" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F42" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G42" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I42" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J42" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R42" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S42" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T42" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U42" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V42" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W42" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X42" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y42" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C43" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D43" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E43" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F43" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G43" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7594,25 +7596,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T43" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U43" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V43" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W43" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X43" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>521.4249017249305</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C44" t="n">
-        <v>521.4249017249305</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D44" t="n">
-        <v>521.4249017249305</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E44" t="n">
-        <v>521.4249017249305</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F44" t="n">
-        <v>521.4249017249305</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G44" t="n">
-        <v>120.0270703481943</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H44" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K44" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L44" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M44" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N44" t="n">
-        <v>1294.102365436318</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O44" t="n">
-        <v>1697.183430080417</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1697.183430080417</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U44" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V44" t="n">
-        <v>1334.566480014244</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W44" t="n">
-        <v>929.7110254252771</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X44" t="n">
-        <v>929.7110254252771</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y44" t="n">
-        <v>521.4249017249305</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>358.5019935678207</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>778.554892512724</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L45" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M45" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O45" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>386.4693996828083</v>
+        <v>826.9659278567121</v>
       </c>
       <c r="C46" t="n">
-        <v>386.4693996828083</v>
+        <v>654.4042163399371</v>
       </c>
       <c r="D46" t="n">
-        <v>380.4087263891149</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E46" t="n">
-        <v>210.6507226398521</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H46" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
-        <v>68.8461756808652</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>343.6046302520008</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>761.8145120199619</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S46" t="n">
-        <v>1697.183430080417</v>
+        <v>2574.890331639896</v>
       </c>
       <c r="T46" t="n">
-        <v>1451.303983658873</v>
+        <v>2329.010885218351</v>
       </c>
       <c r="U46" t="n">
-        <v>1172.870982911978</v>
+        <v>2050.577884471456</v>
       </c>
       <c r="V46" t="n">
-        <v>885.9154747824084</v>
+        <v>1763.622376341887</v>
       </c>
       <c r="W46" t="n">
-        <v>613.8890703687</v>
+        <v>1491.595971928179</v>
       </c>
       <c r="X46" t="n">
-        <v>613.8890703687</v>
+        <v>1246.204217261591</v>
       </c>
       <c r="Y46" t="n">
-        <v>386.4693996828083</v>
+        <v>1018.784546575699</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>407.152590549595</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8000,7 +8002,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>288.796249040161</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,16 +8139,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,25 +8221,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O6" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8455,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K11" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="L12" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8851,13 +8853,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M13" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N13" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N13" t="n">
-        <v>409.401749030468</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9091,10 +9093,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
+        <v>409.401749030468</v>
+      </c>
+      <c r="N16" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N16" t="n">
-        <v>409.401749030468</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
@@ -9164,25 +9166,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>407.152590549595</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>640.544895229762</v>
       </c>
       <c r="O17" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>424.2958575201043</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078568</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L23" t="n">
-        <v>661.9253177860769</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L24" t="n">
-        <v>852.0369646460716</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9884,13 +9886,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9954,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10051,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>667.5152066078568</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10349,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>667.5152066078568</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P32" t="n">
-        <v>88.52591951401018</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,22 +10591,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,22 +10828,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N41" t="n">
-        <v>316.389926674475</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>640.544895229762</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11461,10 +11463,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -22559,7 +22561,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>219.1787388181457</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22595,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -22607,7 +22609,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>87.55058602056374</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -22702,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>68.87734684739507</v>
+        <v>162.7233608150038</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22765,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22787,13 +22789,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22835,22 +22837,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>170.3037679068464</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.43155020079337</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22954,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -22999,16 +23001,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>19.73338962603168</v>
       </c>
       <c r="Y7" t="n">
-        <v>90.08098992907688</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23027,13 +23029,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>38.26486251750902</v>
+        <v>349.1139638889035</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -23078,10 +23080,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23179,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>153.9652030413741</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -23188,7 +23190,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>153.965203041374</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -23264,7 +23266,7 @@
         <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>46.07790660986944</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23317,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>385.3707870796609</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23552,16 +23554,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>20.43155020079337</v>
+        <v>376.025968346039</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23704,10 +23706,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>15.3571274218632</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>68.8773468473951</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>401.5685805129586</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23744,7 +23746,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>392.7742652719091</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>147.0856432552828</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>18.61264485655801</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.3883179426015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>8.789189859683717</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>261.7129346421946</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>165.848372798748</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>29.99283294136563</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>369.0353499799955</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>35.50952759706818</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24689,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
@@ -24737,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>330.3860971166854</v>
       </c>
       <c r="W29" t="n">
-        <v>307.6042418648789</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>135.0797604404442</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.0369853373185</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>397.2445298178354</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25154,25 +25156,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>139.4435016058488</v>
       </c>
       <c r="D35" t="n">
-        <v>275.5510975345597</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25214,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>236.8918211913812</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>271.2270468394368</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.0369853373185</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>11.52710886298172</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>201.4289067612272</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>229.3936637186745</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>158.2191463097361</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>84.63380825304858</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>349318.9572334982</v>
+        <v>349318.957233498</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349318.9572334981</v>
+        <v>349318.9572334983</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>349318.9572334981</v>
+        <v>491407.2790365847</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>681857.8885967659</v>
+        <v>491407.2790365847</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>491407.2790365845</v>
+        <v>491407.2790365846</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491407.2790365845</v>
+        <v>491407.2790365846</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>491407.2790365845</v>
+        <v>491407.2790365847</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491407.2790365845</v>
+        <v>491407.2790365847</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>491407.2790365845</v>
+        <v>491407.2790365847</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491407.2790365845</v>
+        <v>491407.2790365847</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349318.9572334981</v>
+        <v>491407.2790365845</v>
       </c>
     </row>
   </sheetData>
@@ -26326,34 +26328,34 @@
         <v>108182.1038058662</v>
       </c>
       <c r="G2" t="n">
-        <v>108182.1038058662</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="H2" t="n">
-        <v>152186.0528060573</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="I2" t="n">
-        <v>211167.5285796666</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="J2" t="n">
-        <v>152186.0528060573</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="K2" t="n">
-        <v>152186.0528060573</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="L2" t="n">
-        <v>152186.0528060573</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="M2" t="n">
-        <v>152186.0528060573</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="N2" t="n">
-        <v>152186.0528060573</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="O2" t="n">
         <v>152186.0528060573</v>
       </c>
       <c r="P2" t="n">
-        <v>108182.1038058662</v>
+        <v>152186.0528060574</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>66662.77529471672</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>112829.1787276037</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>58530.97957731679</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>37160.80836782805</v>
       </c>
       <c r="D4" t="n">
-        <v>37160.80836782805</v>
+        <v>37160.80836782806</v>
       </c>
       <c r="E4" t="n">
         <v>37160.80836782805</v>
@@ -26430,13 +26432,13 @@
         <v>37160.80836782805</v>
       </c>
       <c r="G4" t="n">
-        <v>37160.80836782805</v>
+        <v>52276.26886172088</v>
       </c>
       <c r="H4" t="n">
-        <v>52276.26886172089</v>
+        <v>52276.26886172088</v>
       </c>
       <c r="I4" t="n">
-        <v>72536.54520472852</v>
+        <v>52276.26886172088</v>
       </c>
       <c r="J4" t="n">
         <v>52276.26886172088</v>
@@ -26448,16 +26450,16 @@
         <v>52276.26886172088</v>
       </c>
       <c r="M4" t="n">
-        <v>52276.26886172088</v>
+        <v>52276.26886172089</v>
       </c>
       <c r="N4" t="n">
         <v>52276.26886172088</v>
       </c>
       <c r="O4" t="n">
+        <v>52276.26886172089</v>
+      </c>
+      <c r="P4" t="n">
         <v>52276.26886172088</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37160.80836782805</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>25797.18813722234</v>
       </c>
       <c r="G5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="H5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="J5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="L5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="M5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="N5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="O5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="P5" t="n">
         <v>40584.9245617577</v>
-      </c>
-      <c r="I5" t="n">
-        <v>66382.11269898004</v>
-      </c>
-      <c r="J5" t="n">
-        <v>40584.9245617577</v>
-      </c>
-      <c r="K5" t="n">
-        <v>40584.9245617577</v>
-      </c>
-      <c r="L5" t="n">
-        <v>40584.9245617577</v>
-      </c>
-      <c r="M5" t="n">
-        <v>40584.9245617577</v>
-      </c>
-      <c r="N5" t="n">
-        <v>40584.9245617577</v>
-      </c>
-      <c r="O5" t="n">
-        <v>40584.9245617577</v>
-      </c>
-      <c r="P5" t="n">
-        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26522,10 +26524,10 @@
         <v>-130594.7933588942</v>
       </c>
       <c r="C6" t="n">
+        <v>11596.50730081577</v>
+      </c>
+      <c r="D6" t="n">
         <v>11596.50730081576</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11596.50730081577</v>
       </c>
       <c r="E6" t="n">
         <v>45224.10730081577</v>
@@ -26534,34 +26536,34 @@
         <v>45224.10730081575</v>
       </c>
       <c r="G6" t="n">
-        <v>45224.10730081577</v>
+        <v>-7337.915912137956</v>
       </c>
       <c r="H6" t="n">
-        <v>-6297.909975438721</v>
+        <v>59324.85938257875</v>
       </c>
       <c r="I6" t="n">
-        <v>-40580.30805164567</v>
+        <v>59324.85938257875</v>
       </c>
       <c r="J6" t="n">
+        <v>-51689.60596241141</v>
+      </c>
+      <c r="K6" t="n">
+        <v>59324.85938257878</v>
+      </c>
+      <c r="L6" t="n">
         <v>59324.85938257875</v>
       </c>
-      <c r="K6" t="n">
-        <v>59324.85938257875</v>
-      </c>
-      <c r="L6" t="n">
-        <v>59324.85938257873</v>
-      </c>
       <c r="M6" t="n">
-        <v>59324.85938257873</v>
+        <v>59324.85938257878</v>
       </c>
       <c r="N6" t="n">
         <v>59324.85938257875</v>
       </c>
       <c r="O6" t="n">
-        <v>59324.85938257875</v>
+        <v>793.8798052619386</v>
       </c>
       <c r="P6" t="n">
-        <v>45224.10730081575</v>
+        <v>59324.85938257877</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="H4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="I4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="J4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="K4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="L4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="M4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="N4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="O4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="P4" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1091.811064127961</v>
-      </c>
-      <c r="J4" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="K4" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="L4" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="M4" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="N4" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O4" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="P4" t="n">
-        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>407.152590549595</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34720,7 +34722,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>288.796249040161</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,16 +34859,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34875,7 +34877,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O6" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35175,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K11" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="L12" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,13 +35573,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M13" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N13" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N13" t="n">
-        <v>409.401749030468</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512943</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,10 +35813,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
+        <v>409.401749030468</v>
+      </c>
+      <c r="N16" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N16" t="n">
-        <v>409.401749030468</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512943</v>
@@ -35884,25 +35886,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>407.152590549595</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>640.544895229762</v>
       </c>
       <c r="O17" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>424.2958575201043</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36130,19 +36132,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078568</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36358,10 +36360,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L23" t="n">
-        <v>661.9253177860769</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36370,16 +36372,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L24" t="n">
-        <v>852.0369646460716</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,7 +36530,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36604,13 +36606,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36668,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36756,10 +36758,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36771,7 +36773,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>667.5152066078568</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36844,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>667.5152066078568</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37081,16 +37083,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P32" t="n">
-        <v>88.52591951401018</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37230,10 +37232,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37309,22 +37311,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697544</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,10 +37469,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37546,22 +37548,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697544</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37704,10 +37706,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N41" t="n">
-        <v>316.389926674475</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>640.544895229762</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158827</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,16 +38183,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106560.992502234</v>
+        <v>101181.9171162045</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23347074.56340344</v>
+        <v>23347074.56340345</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8645685.345390847</v>
+        <v>8645685.345390851</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>313.2563140225133</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>375.9790740437535</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>14.69254647175497</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>12.21662268285748</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>315.1004959279538</v>
       </c>
       <c r="E5" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>230.5031321362306</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>115.4012337133193</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1074,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>223.20444749389</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>74.47479140598085</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>311.7041335076876</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>115.4012337133193</v>
       </c>
       <c r="C10" t="n">
-        <v>16.87089136023326</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>401.3388979860635</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>424.2958575201043</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>15.43611296341609</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>54.18544000521289</v>
       </c>
     </row>
     <row r="14">
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>123.775493226393</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>38.92507044044339</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>25.17541892606785</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1827,13 +1827,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>156.2681271316377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>32.19246757545231</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>26.97779804715775</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>403.4239299235007</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>88.15027917418861</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>43.4889870101585</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>172.6623007436913</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>160.3236401378641</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>54.55340531488843</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>53.00122480006321</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>257.62495382267</v>
       </c>
     </row>
     <row r="27">
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>22.28534392847715</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -2851,16 +2851,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>28.60468344882636</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>185.557375067808</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.56919457453911</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>32.19246757545231</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>155.9995894427402</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>294.3175464825621</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>4.454560685671806</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>185.1447535886774</v>
+        <v>56.84518929254141</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>76.61475015599582</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>403.4239299235007</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -4042,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>185.557375067808</v>
       </c>
       <c r="Y44" t="n">
-        <v>174.8095987446686</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>22.28534392847715</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>73.01514676193472</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>891.1070171270717</v>
+      </c>
+      <c r="C2" t="n">
         <v>462.52534286434</v>
-      </c>
-      <c r="C2" t="n">
-        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
         <v>33.94366860160834</v>
@@ -4330,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1297.111037049594</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1297.111037049594</v>
+        <v>1317.406587611979</v>
       </c>
       <c r="Y2" t="n">
-        <v>888.8249133492478</v>
+        <v>1317.406587611979</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,37 +4397,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>874.0494664914149</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1294.102365436318</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1294.102365436318</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>694.0968560634212</v>
+        <v>936.2947751752459</v>
       </c>
       <c r="C4" t="n">
-        <v>521.5351445466462</v>
+        <v>763.7330636584709</v>
       </c>
       <c r="D4" t="n">
-        <v>521.5351445466462</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="E4" t="n">
-        <v>351.7771407973834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>453.9965675465116</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>885.9154747824084</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X4" t="n">
-        <v>885.9154747824084</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="Y4" t="n">
-        <v>885.9154747824084</v>
+        <v>951.1357312073217</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>462.52534286434</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="C5" t="n">
-        <v>462.52534286434</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="D5" t="n">
-        <v>462.52534286434</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E5" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4567,52 +4567,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R5" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V5" t="n">
-        <v>1114.499252887282</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W5" t="n">
-        <v>881.6678062850293</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X5" t="n">
-        <v>462.52534286434</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="Y5" t="n">
-        <v>462.52534286434</v>
+        <v>1208.676101675288</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>516.14417192365</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C7" t="n">
-        <v>516.14417192365</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D7" t="n">
-        <v>516.14417192365</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4734,10 +4734,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V7" t="n">
-        <v>1013.629614209975</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W7" t="n">
-        <v>741.6032097962661</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X7" t="n">
-        <v>516.14417192365</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="Y7" t="n">
-        <v>516.14417192365</v>
+        <v>1229.568731954216</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>510.5685620045878</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="C8" t="n">
-        <v>510.5685620045878</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D8" t="n">
-        <v>510.5685620045878</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E8" t="n">
-        <v>510.5685620045878</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G8" t="n">
         <v>33.94366860160834</v>
@@ -4807,22 +4807,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>1298.678896155479</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1298.678896155479</v>
       </c>
       <c r="X8" t="n">
-        <v>510.5685620045878</v>
+        <v>1298.678896155479</v>
       </c>
       <c r="Y8" t="n">
-        <v>510.5685620045878</v>
+        <v>890.3927724551322</v>
       </c>
     </row>
     <row r="9">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>227.6920270441282</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C10" t="n">
-        <v>210.6507226398521</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D10" t="n">
-        <v>210.6507226398521</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U10" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V10" t="n">
-        <v>1164.348475529303</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W10" t="n">
-        <v>892.3220711155946</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X10" t="n">
-        <v>646.930316449007</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="Y10" t="n">
-        <v>419.5106457631153</v>
+        <v>1229.568731954216</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1318.974446717864</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.974446717864</v>
+        <v>1291.790603831868</v>
       </c>
       <c r="D11" t="n">
-        <v>890.3927724551322</v>
+        <v>1291.790603831868</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8110981924006</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G11" t="n">
         <v>33.94366860160834</v>
@@ -5041,28 +5041,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L11" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N11" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O11" t="n">
         <v>874.0494664914149</v>
       </c>
-      <c r="M11" t="n">
-        <v>874.0494664914149</v>
-      </c>
-      <c r="N11" t="n">
-        <v>874.0494664914149</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1294.102365436318</v>
-      </c>
       <c r="P11" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q11" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R11" t="n">
         <v>1697.183430080417</v>
@@ -5077,16 +5077,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>1318.974446717864</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>1318.974446717864</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y11" t="n">
-        <v>1318.974446717864</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J12" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>437.0247332457074</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q12" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R12" t="n">
         <v>1697.183430080417</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>346.4075544280089</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H13" t="n">
         <v>33.94366860160834</v>
@@ -5199,52 +5199,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M13" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N13" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O13" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.870982911978</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V13" t="n">
-        <v>885.9154747824084</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W13" t="n">
-        <v>613.8890703687</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="X13" t="n">
-        <v>368.4973157021125</v>
+        <v>592.9589408290292</v>
       </c>
       <c r="Y13" t="n">
-        <v>141.0776450162207</v>
+        <v>538.226173146996</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>890.3927724551322</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="C14" t="n">
-        <v>890.3927724551322</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="D14" t="n">
-        <v>890.3927724551322</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E14" t="n">
         <v>461.8110981924006</v>
@@ -5278,19 +5278,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J14" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K14" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L14" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M14" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N14" t="n">
-        <v>687.9235674375537</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O14" t="n">
         <v>687.9235674375537</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V14" t="n">
-        <v>1334.566480014244</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W14" t="n">
-        <v>929.7110254252771</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="X14" t="n">
-        <v>890.3927724551322</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="Y14" t="n">
-        <v>890.3927724551322</v>
+        <v>586.8368489261309</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D15" t="n">
         <v>338.5686635760967</v>
@@ -5345,40 +5345,40 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F15" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J15" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L15" t="n">
-        <v>874.0494664914149</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M15" t="n">
-        <v>874.0494664914149</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N15" t="n">
-        <v>874.0494664914149</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O15" t="n">
-        <v>1294.102365436318</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P15" t="n">
-        <v>1697.183430080417</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q15" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R15" t="n">
         <v>1697.183430080417</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.6507226398521</v>
+        <v>947.1238364150125</v>
       </c>
       <c r="C16" t="n">
-        <v>210.6507226398521</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="D16" t="n">
-        <v>210.6507226398521</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E16" t="n">
-        <v>210.6507226398521</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H16" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M16" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N16" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O16" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
@@ -5463,25 +5463,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="W16" t="n">
-        <v>613.8890703687</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="X16" t="n">
-        <v>368.4973157021125</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="Y16" t="n">
-        <v>210.6507226398521</v>
+        <v>972.5535525019498</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85.91886054423696</v>
+        <v>909.916778553892</v>
       </c>
       <c r="C17" t="n">
-        <v>53.40121652862857</v>
+        <v>909.916778553892</v>
       </c>
       <c r="D17" t="n">
-        <v>53.40121652862857</v>
+        <v>909.916778553892</v>
       </c>
       <c r="E17" t="n">
-        <v>53.40121652862857</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40121652862857</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M17" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N17" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O17" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
@@ -5545,22 +5545,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T17" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U17" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V17" t="n">
-        <v>1744.502472739147</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W17" t="n">
-        <v>1339.647018150181</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X17" t="n">
-        <v>920.5045547294914</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="Y17" t="n">
-        <v>512.2184310291448</v>
+        <v>1336.2163490388</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L18" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M18" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N18" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O18" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P18" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R18" t="n">
         <v>1716.640978007438</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C19" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D19" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E19" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F19" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K19" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M19" t="n">
         <v>1292.433105213328</v>
@@ -5700,25 +5700,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U19" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V19" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W19" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X19" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>743.9292024621484</v>
+        <v>2167.266489194576</v>
       </c>
       <c r="C20" t="n">
-        <v>743.9292024621484</v>
+        <v>1729.124016377999</v>
       </c>
       <c r="D20" t="n">
-        <v>743.9292024621484</v>
+        <v>1293.214231552443</v>
       </c>
       <c r="E20" t="n">
-        <v>743.9292024621484</v>
+        <v>859.4394867107385</v>
       </c>
       <c r="F20" t="n">
-        <v>743.9292024621484</v>
+        <v>431.5720571199462</v>
       </c>
       <c r="G20" t="n">
         <v>342.5313710854123</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
         <v>488.6559039815464</v>
@@ -5767,13 +5767,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
@@ -5785,19 +5785,19 @@
         <v>2586.408952615265</v>
       </c>
       <c r="U20" t="n">
-        <v>2327.186649932282</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V20" t="n">
-        <v>1964.569699866109</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W20" t="n">
-        <v>1559.714245277142</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="X20" t="n">
-        <v>1559.714245277142</v>
+        <v>2167.266489194576</v>
       </c>
       <c r="Y20" t="n">
-        <v>1151.428121576796</v>
+        <v>2167.266489194576</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
         <v>79.46488968908616</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1132.45937714051</v>
+        <v>878.2081529410129</v>
       </c>
       <c r="C22" t="n">
-        <v>959.897665623735</v>
+        <v>705.6464414242379</v>
       </c>
       <c r="D22" t="n">
-        <v>794.0196728252577</v>
+        <v>539.7684486257606</v>
       </c>
       <c r="E22" t="n">
-        <v>624.2616690759949</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F22" t="n">
-        <v>447.554615037751</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G22" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5922,7 +5922,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O22" t="n">
         <v>2154.361157596754</v>
@@ -5934,28 +5934,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2489.401636434797</v>
+        <v>2626.132556724197</v>
       </c>
       <c r="T22" t="n">
-        <v>2243.522190013252</v>
+        <v>2380.253110302652</v>
       </c>
       <c r="U22" t="n">
-        <v>2243.522190013252</v>
+        <v>2101.820109555757</v>
       </c>
       <c r="V22" t="n">
-        <v>2069.115825625685</v>
+        <v>1814.864601426188</v>
       </c>
       <c r="W22" t="n">
-        <v>1797.089421211977</v>
+        <v>1542.838197012479</v>
       </c>
       <c r="X22" t="n">
-        <v>1551.697666545389</v>
+        <v>1297.446442345892</v>
       </c>
       <c r="Y22" t="n">
-        <v>1324.277995859497</v>
+        <v>1070.02677166</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1177.703947303853</v>
+        <v>1361.228219012466</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.703947303853</v>
+        <v>923.0857461958889</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.703947303853</v>
+        <v>487.1759613703334</v>
       </c>
       <c r="E23" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F23" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G23" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L23" t="n">
-        <v>632.7278666362199</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M23" t="n">
-        <v>632.7278666362199</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N23" t="n">
-        <v>632.7278666362199</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O23" t="n">
-        <v>1293.567921177998</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>2586.408952615265</v>
+        <v>2614.956376618409</v>
       </c>
       <c r="T23" t="n">
-        <v>2366.341725488304</v>
+        <v>2614.956376618409</v>
       </c>
       <c r="U23" t="n">
-        <v>2107.119422805321</v>
+        <v>2614.956376618409</v>
       </c>
       <c r="V23" t="n">
-        <v>1744.502472739147</v>
+        <v>2614.956376618409</v>
       </c>
       <c r="W23" t="n">
-        <v>1339.647018150181</v>
+        <v>2614.956376618409</v>
       </c>
       <c r="X23" t="n">
-        <v>1339.647018150181</v>
+        <v>2195.81391319772</v>
       </c>
       <c r="Y23" t="n">
-        <v>1339.647018150181</v>
+        <v>1787.527789497373</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C25" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D25" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E25" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F25" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6153,7 +6153,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M25" t="n">
         <v>1292.433105213328</v>
@@ -6171,28 +6171,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T25" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U25" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V25" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W25" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X25" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y25" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1789.095648603258</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C26" t="n">
-        <v>1350.953175786681</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D26" t="n">
-        <v>915.0433909611256</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E26" t="n">
-        <v>481.2686461194209</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F26" t="n">
-        <v>53.40121652862857</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M26" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N26" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O26" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6256,22 +6256,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U26" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V26" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W26" t="n">
-        <v>2670.060826431428</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X26" t="n">
-        <v>2250.918363010739</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y26" t="n">
-        <v>1842.632239310392</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6308,19 +6308,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P27" t="n">
         <v>1058.729261281022</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>903.8972536055599</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C28" t="n">
-        <v>731.3355420887848</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D28" t="n">
-        <v>565.4575492903075</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E28" t="n">
-        <v>395.6995455410447</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F28" t="n">
-        <v>218.9924915028009</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G28" t="n">
-        <v>53.40121652862857</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6390,7 +6390,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L28" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
@@ -6408,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2651.821657388744</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T28" t="n">
-        <v>2405.942210967199</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U28" t="n">
-        <v>2127.509210220304</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V28" t="n">
-        <v>1840.553702090735</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W28" t="n">
-        <v>1568.527297677026</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X28" t="n">
-        <v>1323.135543010439</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y28" t="n">
-        <v>1095.715872324547</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2078.225803160042</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C29" t="n">
-        <v>1640.083330343465</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D29" t="n">
-        <v>1204.173545517909</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E29" t="n">
-        <v>770.3988006762045</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F29" t="n">
-        <v>342.5313710854123</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G29" t="n">
         <v>342.5313710854123</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
         <v>488.6559039815464</v>
@@ -6469,22 +6469,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L29" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M29" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N29" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O29" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6493,22 +6493,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U29" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V29" t="n">
-        <v>2078.225803160042</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W29" t="n">
-        <v>2078.225803160042</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X29" t="n">
-        <v>2078.225803160042</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y29" t="n">
-        <v>2078.225803160042</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>877.921435116708</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C31" t="n">
-        <v>705.359723599933</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D31" t="n">
-        <v>705.359723599933</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E31" t="n">
-        <v>535.6017198506702</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F31" t="n">
-        <v>358.8946658124264</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G31" t="n">
-        <v>193.303390838254</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6645,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2625.845838899892</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.966392478347</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U31" t="n">
-        <v>2101.533391731452</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V31" t="n">
-        <v>1814.577883601883</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W31" t="n">
-        <v>1542.551479188174</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X31" t="n">
-        <v>1297.159724521587</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y31" t="n">
-        <v>1069.740053835695</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>85.91886054423696</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="C32" t="n">
-        <v>85.91886054423696</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D32" t="n">
-        <v>85.91886054423696</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E32" t="n">
-        <v>53.40121652862857</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F32" t="n">
-        <v>53.40121652862857</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L32" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M32" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N32" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6730,22 +6730,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U32" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V32" t="n">
-        <v>1744.502472739147</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W32" t="n">
-        <v>1339.647018150181</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X32" t="n">
-        <v>920.5045547294914</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="Y32" t="n">
-        <v>512.2184310291448</v>
+        <v>1182.071675278725</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.1364226482442</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C34" t="n">
-        <v>749.5747111314691</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D34" t="n">
-        <v>583.6967183329918</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E34" t="n">
-        <v>413.9387145837291</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F34" t="n">
-        <v>237.2316605454853</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G34" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6864,7 +6864,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
@@ -6882,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S34" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T34" t="n">
-        <v>2424.181380009883</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U34" t="n">
-        <v>2145.748379262989</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V34" t="n">
-        <v>1858.792871133419</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W34" t="n">
-        <v>1586.766466719711</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X34" t="n">
-        <v>1341.374712053123</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.955041367231</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1220.792986561236</v>
+        <v>1176.296188301094</v>
       </c>
       <c r="C35" t="n">
-        <v>923.502535568749</v>
+        <v>1176.296188301094</v>
       </c>
       <c r="D35" t="n">
-        <v>487.5927507431934</v>
+        <v>1176.296188301094</v>
       </c>
       <c r="E35" t="n">
-        <v>53.81800590148856</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F35" t="n">
-        <v>53.81800590148856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G35" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H35" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M35" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N35" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O35" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2410.838523748445</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V35" t="n">
-        <v>2048.221573682272</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W35" t="n">
-        <v>2048.221573682272</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="X35" t="n">
-        <v>1629.079110261583</v>
+        <v>1584.582312001441</v>
       </c>
       <c r="Y35" t="n">
-        <v>1220.792986561236</v>
+        <v>1176.296188301094</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J36" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K36" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L36" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M36" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N36" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O36" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P36" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q36" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R36" t="n">
         <v>1716.640978007438</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C37" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D37" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E37" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F37" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7101,7 +7101,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L37" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
@@ -7122,25 +7122,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T37" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U37" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V37" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W37" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X37" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y37" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="C38" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="D38" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E38" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F38" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G38" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H38" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L38" t="n">
-        <v>488.6559039815464</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M38" t="n">
-        <v>488.6559039815464</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362199</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O38" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7204,22 +7204,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U38" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V38" t="n">
-        <v>1744.502472739147</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W38" t="n">
-        <v>1339.647018150181</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X38" t="n">
-        <v>1339.647018150181</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y38" t="n">
-        <v>931.3608944498341</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C40" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D40" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E40" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F40" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7338,7 +7338,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
@@ -7359,25 +7359,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T40" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U40" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V40" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W40" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X40" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y40" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>743.9292024621484</v>
+        <v>532.1876844265726</v>
       </c>
       <c r="C41" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="D41" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E41" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F41" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G41" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L41" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M41" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N41" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O41" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q41" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T41" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U41" t="n">
-        <v>2327.186649932282</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V41" t="n">
-        <v>1964.569699866109</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W41" t="n">
-        <v>1559.714245277142</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X41" t="n">
-        <v>1152.215326162495</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y41" t="n">
-        <v>743.9292024621484</v>
+        <v>958.4872549114804</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
         <v>79.46488968908616</v>
@@ -7560,13 +7560,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7648,16 +7648,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L44" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M44" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N44" t="n">
         <v>632.7278666362198</v>
@@ -7690,7 +7690,7 @@
         <v>1339.64701815018</v>
       </c>
       <c r="X44" t="n">
-        <v>920.5045547294905</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y44" t="n">
         <v>743.9292024621484</v>
@@ -7730,19 +7730,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L45" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
         <v>1058.729261281022</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>826.9659278567121</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C46" t="n">
-        <v>654.4042163399371</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D46" t="n">
-        <v>488.5262235414597</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E46" t="n">
-        <v>318.768219792197</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F46" t="n">
-        <v>142.0611657539532</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G46" t="n">
-        <v>142.0611657539532</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H46" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I46" t="n">
         <v>53.40121652862856</v>
@@ -7818,7 +7818,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
         <v>2154.361157596754</v>
@@ -7833,25 +7833,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S46" t="n">
-        <v>2574.890331639896</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T46" t="n">
-        <v>2329.010885218351</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U46" t="n">
-        <v>2050.577884471456</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V46" t="n">
-        <v>1763.622376341887</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W46" t="n">
-        <v>1491.595971928179</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X46" t="n">
-        <v>1246.204217261591</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y46" t="n">
-        <v>1018.784546575699</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>288.796249040161</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O5" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8382,13 +8382,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8455,25 +8455,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L11" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q11" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P11" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P12" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O14" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K14" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="P15" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>640.544895229762</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>466.3240083888434</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078572</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9640,10 +9640,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078571</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10117,10 +10117,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10588,22 +10588,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>345.0097498941939</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M41" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>640.544895229762</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O44" t="n">
         <v>667.515206607857</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22552,7 +22552,7 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -22609,13 +22609,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>87.55058602056374</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>38.97196474272886</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22704,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>175.2078860600423</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.7233608150038</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22789,13 +22789,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>116.4501910493461</v>
       </c>
       <c r="E5" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>170.3037679068464</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22941,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>74.49919881847789</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22962,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>19.73338962603168</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -23026,16 +23026,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>349.1139638889035</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -23080,16 +23080,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>47.28664705782415</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>74.49919881847789</v>
       </c>
       <c r="C10" t="n">
-        <v>153.9652030413741</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23260,10 +23260,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>32.42215010234742</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>5.14113987318342</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23317,10 +23317,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>385.3707870796609</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -23433,7 +23433,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>170.9600339738199</v>
       </c>
     </row>
     <row r="14">
@@ -23500,10 +23500,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>307.775193750907</v>
       </c>
       <c r="E14" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>376.025968346039</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>164.7250136057294</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>68.8773468473951</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>401.5685805129586</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>402.45919934613</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18.61264485655801</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>309.2335738887801</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>261.7129346421946</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>28.26194976311293</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>369.0353499799955</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24496,22 +24496,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>146.5783086406731</v>
       </c>
     </row>
     <row r="27">
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>330.3860971166854</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>229.3936637186744</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>135.0797604404442</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>397.2445298178354</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>258.9514493437422</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -25156,25 +25156,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>139.4435016058488</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>424.9824367076159</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.8918211913812</v>
+        <v>365.1913854875173</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>357.1462979324151</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>11.52710886298172</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>229.3936637186744</v>
       </c>
       <c r="Y44" t="n">
-        <v>229.3936637186745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>84.63380825304858</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>349318.957233498</v>
+        <v>349318.9572334982</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>349318.9572334981</v>
+        <v>349318.957233498</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>349318.9572334981</v>
+        <v>349318.9572334982</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349318.9572334983</v>
+        <v>349318.957233498</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>491407.2790365847</v>
+        <v>491407.2790365845</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>491407.2790365847</v>
+        <v>491407.2790365846</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>491407.2790365847</v>
+        <v>491407.2790365846</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491407.2790365847</v>
+        <v>491407.2790365846</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>491407.2790365847</v>
+        <v>491407.2790365846</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491407.2790365847</v>
+        <v>491407.2790365845</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>491407.2790365845</v>
+        <v>491407.2790365846</v>
       </c>
     </row>
   </sheetData>
@@ -26328,25 +26328,25 @@
         <v>108182.1038058662</v>
       </c>
       <c r="G2" t="n">
-        <v>152186.0528060574</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="H2" t="n">
         <v>152186.0528060574</v>
       </c>
       <c r="I2" t="n">
-        <v>152186.0528060574</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="J2" t="n">
-        <v>152186.0528060574</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="K2" t="n">
-        <v>152186.0528060574</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="L2" t="n">
         <v>152186.0528060574</v>
       </c>
       <c r="M2" t="n">
-        <v>152186.0528060574</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="N2" t="n">
         <v>152186.0528060574</v>
@@ -26355,7 +26355,7 @@
         <v>152186.0528060573</v>
       </c>
       <c r="P2" t="n">
-        <v>152186.0528060574</v>
+        <v>152186.0528060573</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>66662.77529471672</v>
+        <v>66662.77529471669</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>58530.97957731679</v>
+        <v>58530.97957731676</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37160.80836782805</v>
+        <v>37160.80836782806</v>
       </c>
       <c r="C4" t="n">
         <v>37160.80836782805</v>
       </c>
       <c r="D4" t="n">
-        <v>37160.80836782806</v>
+        <v>37160.80836782805</v>
       </c>
       <c r="E4" t="n">
         <v>37160.80836782805</v>
@@ -26435,7 +26435,7 @@
         <v>52276.26886172088</v>
       </c>
       <c r="H4" t="n">
-        <v>52276.26886172088</v>
+        <v>52276.26886172089</v>
       </c>
       <c r="I4" t="n">
         <v>52276.26886172088</v>
@@ -26450,13 +26450,13 @@
         <v>52276.26886172088</v>
       </c>
       <c r="M4" t="n">
-        <v>52276.26886172089</v>
+        <v>52276.26886172088</v>
       </c>
       <c r="N4" t="n">
         <v>52276.26886172088</v>
       </c>
       <c r="O4" t="n">
-        <v>52276.26886172089</v>
+        <v>52276.26886172088</v>
       </c>
       <c r="P4" t="n">
         <v>52276.26886172088</v>
@@ -26484,31 +26484,31 @@
         <v>25797.18813722234</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
         <v>40584.9245617577</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-130594.7933588942</v>
+        <v>-131334.1499708098</v>
       </c>
       <c r="C6" t="n">
-        <v>11596.50730081577</v>
+        <v>10857.15068890012</v>
       </c>
       <c r="D6" t="n">
-        <v>11596.50730081576</v>
+        <v>10857.1506889001</v>
       </c>
       <c r="E6" t="n">
-        <v>45224.10730081577</v>
+        <v>44484.7506889001</v>
       </c>
       <c r="F6" t="n">
-        <v>45224.10730081575</v>
+        <v>44484.75068890012</v>
       </c>
       <c r="G6" t="n">
-        <v>-7337.915912137956</v>
+        <v>-7832.806140719207</v>
       </c>
       <c r="H6" t="n">
-        <v>59324.85938257875</v>
+        <v>58829.9691539975</v>
       </c>
       <c r="I6" t="n">
-        <v>59324.85938257875</v>
+        <v>58829.96915399744</v>
       </c>
       <c r="J6" t="n">
-        <v>-51689.60596241141</v>
+        <v>-52184.49619099272</v>
       </c>
       <c r="K6" t="n">
-        <v>59324.85938257878</v>
+        <v>58829.96915399747</v>
       </c>
       <c r="L6" t="n">
-        <v>59324.85938257875</v>
+        <v>58829.96915399752</v>
       </c>
       <c r="M6" t="n">
-        <v>59324.85938257878</v>
+        <v>58829.96915399747</v>
       </c>
       <c r="N6" t="n">
-        <v>59324.85938257875</v>
+        <v>58829.9691539975</v>
       </c>
       <c r="O6" t="n">
-        <v>793.8798052619386</v>
+        <v>298.9895766806949</v>
       </c>
       <c r="P6" t="n">
-        <v>59324.85938257877</v>
+        <v>58829.96915399746</v>
       </c>
     </row>
   </sheetData>
@@ -26804,31 +26804,31 @@
         <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
         <v>667.515206607857</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>243.2193490877527</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>243.2193490877527</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>243.2193490877527</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>288.796249040161</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O5" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35175,25 +35175,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L11" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q11" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P11" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P12" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O14" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K14" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="P15" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>640.544895229762</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>466.3240083888434</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36050,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36135,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078572</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36287,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36360,10 +36360,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36372,16 +36372,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078571</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,10 +36521,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36758,10 +36758,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36837,10 +36837,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37232,10 +37232,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37308,22 +37308,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>345.0097498941939</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,10 +37469,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37545,22 +37545,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37706,10 +37706,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M41" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>640.544895229762</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O44" t="n">
         <v>667.515206607857</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38183,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
